--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/COLORADO_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/COLORADO_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1131"/>
+  <dimension ref="A1:D1125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C29">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C32">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C37">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C56">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C57">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C92">
@@ -1654,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="D97">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="98">
@@ -1725,14 +1725,14 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C103">
         <v>9</v>
       </c>
       <c r="D103">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="104">
@@ -1764,7 +1764,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C106">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C128">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C129">
@@ -2167,7 +2167,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C137">
@@ -2354,7 +2354,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C151">
@@ -2444,7 +2444,7 @@
         <v>9</v>
       </c>
       <c r="D157">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="158">
@@ -2502,7 +2502,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C162">
@@ -2528,7 +2528,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C168">
@@ -2696,7 +2696,7 @@
         <v>9</v>
       </c>
       <c r="D176">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="177">
@@ -2709,7 +2709,7 @@
         <v>9</v>
       </c>
       <c r="D177">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="178">
@@ -2735,7 +2735,7 @@
         <v>9</v>
       </c>
       <c r="D179">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="180">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C183">
@@ -2883,7 +2883,7 @@
         <v>9</v>
       </c>
       <c r="D190">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="191">
@@ -2896,7 +2896,7 @@
         <v>9</v>
       </c>
       <c r="D191">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="192">
@@ -2948,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="D195">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="196">
@@ -2967,7 +2967,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C197">
@@ -2987,7 +2987,7 @@
         <v>9</v>
       </c>
       <c r="D198">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="199">
@@ -3006,7 +3006,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C200">
@@ -3097,7 +3097,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C207">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C208">
@@ -3123,7 +3123,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C209">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C210">
@@ -3266,12 +3266,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C220">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C223">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C224">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C227">
@@ -3382,7 +3382,7 @@
         <v>9</v>
       </c>
       <c r="D228">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="229">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C238">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C241">
@@ -3590,7 +3590,7 @@
         <v>9</v>
       </c>
       <c r="D244">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="245">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C249">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C255">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C256">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C258">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C267">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C274">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C277">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C278">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C279">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C295">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C299">
@@ -4394,14 +4394,14 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C306">
         <v>9</v>
       </c>
       <c r="D306">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="307">
@@ -4440,7 +4440,7 @@
         <v>9</v>
       </c>
       <c r="D309">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="310">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C311">
@@ -4485,7 +4485,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C313">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C315">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C316">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C318">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C324">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C326">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C332">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C336">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C337">
@@ -4835,7 +4835,7 @@
         <v>9</v>
       </c>
       <c r="D339">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="340">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C341">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C342">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C346">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C347">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C353">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C355">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C357">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C371">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C373">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C376">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C379">
@@ -5464,7 +5464,7 @@
         <v>9</v>
       </c>
       <c r="D387">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="388">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C393">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C398">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C405">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C410">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C411">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C412">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C413">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C422">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C424">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C430">
@@ -6029,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C431">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C433">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C437">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C440">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C443">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C445">
@@ -6249,7 +6249,7 @@
         <v>9</v>
       </c>
       <c r="D447">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="448">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C454">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C461">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C466">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C467">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C468">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C471">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C476">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C483">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C486">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C487">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C488">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C490">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C492">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C493">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C495">
@@ -6879,14 +6879,14 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C496">
         <v>9</v>
       </c>
       <c r="D496">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="497">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C502">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C503">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C505">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C506">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C513">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C514">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C515">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C520">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C521">
@@ -7230,14 +7230,14 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C523">
         <v>9</v>
       </c>
       <c r="D523">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="524">
@@ -7456,7 +7456,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C540">
@@ -7482,7 +7482,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C542">
@@ -7606,7 +7606,7 @@
         <v>9</v>
       </c>
       <c r="D551">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="552">
@@ -8106,7 +8106,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C590">
@@ -8488,7 +8488,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C619">
@@ -8540,7 +8540,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C623">
@@ -8566,7 +8566,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C625">
@@ -8644,7 +8644,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C631">
@@ -8701,7 +8701,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C635">
@@ -8714,7 +8714,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C636">
@@ -8766,7 +8766,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C640">
@@ -8953,7 +8953,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C654">
@@ -9018,7 +9018,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C659">
@@ -9057,7 +9057,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C662">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C665">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C667">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C668">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C669">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C670">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C671">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C673">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C675">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,20 +9283,20 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C679">
         <v>9</v>
       </c>
       <c r="D679">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C680">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C681">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C682">
@@ -9381,7 +9381,7 @@
         <v>9</v>
       </c>
       <c r="D686">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="687">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C696">
@@ -9537,7 +9537,7 @@
         <v>9</v>
       </c>
       <c r="D698">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="699">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C709">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C719">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C725">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C733">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C744">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C747">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C748">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C751">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C752">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C754">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C755">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C756">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C757">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C758">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C759">
@@ -10478,7 +10478,7 @@
         <v>9</v>
       </c>
       <c r="D770">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="771">
@@ -10523,7 +10523,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C774">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C787">
@@ -10731,7 +10731,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C790">
@@ -10770,7 +10770,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C793">
@@ -10861,7 +10861,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C800">
@@ -10913,7 +10913,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C804">
@@ -11030,7 +11030,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C813">
@@ -11056,7 +11056,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C815">
@@ -11082,7 +11082,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C817">
@@ -11147,7 +11147,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C822">
@@ -11160,7 +11160,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C823">
@@ -11186,7 +11186,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C825">
@@ -11199,7 +11199,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C826">
@@ -11264,7 +11264,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C831">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C846">
@@ -11477,7 +11477,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C847">
@@ -11529,7 +11529,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C851">
@@ -11542,7 +11542,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C852">
@@ -11581,7 +11581,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C855">
@@ -11607,7 +11607,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C857">
@@ -11754,13 +11754,13 @@
         <v>9</v>
       </c>
       <c r="D867">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C868">
@@ -11864,7 +11864,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C876">
@@ -11942,7 +11942,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C882">
@@ -11994,7 +11994,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C886">
@@ -12007,7 +12007,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C887">
@@ -12020,7 +12020,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C888">
@@ -12136,7 +12136,7 @@
         <v>9</v>
       </c>
       <c r="D896">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="897">
@@ -12318,7 +12318,7 @@
         <v>9</v>
       </c>
       <c r="D910">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="911">
@@ -12498,7 +12498,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C924">
@@ -12672,7 +12672,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C937">
@@ -12866,7 +12866,7 @@
         <v>9</v>
       </c>
       <c r="D951">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="952">
@@ -12950,7 +12950,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C958">
@@ -13085,7 +13085,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C968">
@@ -13111,7 +13111,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C970">
@@ -13124,7 +13124,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C971">
@@ -13259,7 +13259,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C981">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C984">
@@ -13402,7 +13402,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C992">
@@ -13506,7 +13506,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1000">
@@ -13636,7 +13636,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1010">
@@ -13649,7 +13649,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1011">
@@ -13688,7 +13688,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1014">
@@ -13721,7 +13721,7 @@
         <v>9</v>
       </c>
       <c r="D1016">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="1017">
@@ -13740,7 +13740,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1018">
@@ -13779,7 +13779,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1021">
@@ -13792,7 +13792,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1022">
@@ -13818,7 +13818,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1024">
@@ -13831,7 +13831,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1025">
@@ -13961,7 +13961,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1035">
@@ -14013,7 +14013,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1039">
@@ -14078,7 +14078,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1044">
@@ -14104,7 +14104,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1046">
@@ -14130,7 +14130,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1048">
@@ -14299,7 +14299,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1061">
@@ -14377,7 +14377,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1067">
@@ -14428,7 +14428,7 @@
         <v>9</v>
       </c>
       <c r="D1070">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="1071">
@@ -14621,7 +14621,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1085">
@@ -14751,7 +14751,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1095">
@@ -14868,7 +14868,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1104">
@@ -14881,7 +14881,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1105">
@@ -15011,7 +15011,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1115">
@@ -15050,14 +15050,14 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1118">
         <v>9</v>
       </c>
       <c r="D1118">
-        <v>0.0009588749200937567</v>
+        <v>0.0009588749200937568</v>
       </c>
     </row>
     <row r="1119">
@@ -15135,7 +15135,7 @@
         <v>900</v>
       </c>
       <c r="D1124">
-        <v>0.09588749200937567</v>
+        <v>0.09588749200937569</v>
       </c>
     </row>
     <row r="1125">
@@ -15149,41 +15149,6 @@
       </c>
       <c r="D1125">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
